--- a/src/main/java/com/testdata/AdminSuite.xlsx
+++ b/src/main/java/com/testdata/AdminSuite.xlsx
@@ -10,12 +10,12 @@
     <sheet name="MyAccountDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:H3"/>
+  <oleSize ref="E1:L3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>TC Name</t>
   </si>
@@ -59,6 +59,21 @@
     <t>Mail Extension changes have been saved successfully.</t>
   </si>
   <si>
+    <t>AdminSuite.MyAccount_003_ViewMailExtentions-Run1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Jan20sanitymail1.com-MailinatorSampleMail1</t>
+  </si>
+  <si>
+    <t>AdminSuite.MyAccount_003_ViewMailExtentions-Run2</t>
+  </si>
+  <si>
+    <t>Jan20sanitymail3.com-MailinatorSampleMail2</t>
+  </si>
+  <si>
     <t>AdminSuite.LoginTest</t>
   </si>
   <si>
@@ -69,18 +84,6 @@
   </si>
   <si>
     <t>Sreekanth Bandi</t>
-  </si>
-  <si>
-    <t>AdminSuite.MyAccount_003_ViewMailExtentions-Run1</t>
-  </si>
-  <si>
-    <t>Jan20sanitymail1.com-MailinatorSampleMail1</t>
-  </si>
-  <si>
-    <t>AdminSuite.MyAccount_003_ViewMailExtentions-Run2</t>
-  </si>
-  <si>
-    <t>Jan20sanitymail2.com-MailinatorSampleMail2</t>
   </si>
 </sst>
 </file>
@@ -88,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -110,31 +113,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +143,89 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -154,100 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +265,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,151 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +494,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,31 +529,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,33 +571,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,136 +592,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1044,8 +1046,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
@@ -1077,13 +1079,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1097,10 +1099,10 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1116,55 +1118,55 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
